--- a/Литература/ГА/Почность на сжатие.xlsx
+++ b/Литература/ГА/Почность на сжатие.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Рабочий стол\НИРС\НС ТУСУР\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Рабочий стол\практика 4 курс\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F47B87C-0B4C-4D07-B7A8-A34B89850CB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56DBB608-093D-48AA-8B3A-B42B4DF94C98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14505" yWindow="7545" windowWidth="13215" windowHeight="7935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
   <si>
     <t>материал</t>
   </si>
@@ -51,9 +51,6 @@
     <t>50-70 МПа</t>
   </si>
   <si>
-    <t>115 МПа</t>
-  </si>
-  <si>
     <t>Investigation of tensile strength of hydroxyapatite with various porosities by diametral strength test</t>
   </si>
   <si>
@@ -114,12 +111,6 @@
     <t>COMSOL</t>
   </si>
   <si>
-    <t>Образец с пористостью 5%</t>
-  </si>
-  <si>
-    <t>Образец с пористостью 18%</t>
-  </si>
-  <si>
     <t>63.84 Мпа</t>
   </si>
   <si>
@@ -132,20 +123,47 @@
     <t>74.6 МПа</t>
   </si>
   <si>
-    <t>Образец с пористостью 26.4%</t>
-  </si>
-  <si>
     <t>36.7 МПа</t>
   </si>
   <si>
     <t>?</t>
+  </si>
+  <si>
+    <t>80 МПа</t>
+  </si>
+  <si>
+    <t>compact human bone</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1557/JMR.1998.0015</t>
+  </si>
+  <si>
+    <t>170-193</t>
+  </si>
+  <si>
+    <t>250–350</t>
+  </si>
+  <si>
+    <t>Enamel</t>
+  </si>
+  <si>
+    <t>Dentine</t>
+  </si>
+  <si>
+    <t>Образец с пористостью 5.8%</t>
+  </si>
+  <si>
+    <t>Образец с пористостью 18.2%</t>
+  </si>
+  <si>
+    <t>Образец с пористостью 26.5%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,6 +197,15 @@
     <font>
       <sz val="11"/>
       <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -218,18 +245,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -330,7 +358,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$H$14:$H$17</c:f>
+              <c:f>Лист1!$H$20:$H$23</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
@@ -351,7 +379,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$G$14:$G$17</c:f>
+              <c:f>Лист1!$G$20:$G$23</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1096,16 +1124,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>261937</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2155732</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>113460</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>366712</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>456360</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>189660</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1396,10 +1424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1410,18 +1438,18 @@
     <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1432,8 +1460,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
@@ -1443,143 +1471,173 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
       <c r="D5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="C7" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D9" t="s">
+      <c r="B10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="H20" s="8">
+        <v>117.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" s="9">
+        <v>0.112</v>
+      </c>
+      <c r="H21" s="8">
+        <v>74.599999999999994</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="7" t="s">
+      <c r="G22" s="9">
+        <v>0.18</v>
+      </c>
+      <c r="H22" s="8">
+        <v>63.84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G14" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="H14" s="9">
-        <v>117.9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15" s="10">
-        <v>0.112</v>
-      </c>
-      <c r="H15" s="9">
-        <v>74.599999999999994</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G16" s="10">
-        <v>0.18</v>
-      </c>
-      <c r="H16" s="9">
-        <v>63.84</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G17" s="10">
+      <c r="G23" s="9">
         <v>0.26400000000000001</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H23" s="8">
         <v>36.700000000000003</v>
       </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="11"/>
     </row>
   </sheetData>
   <hyperlinks>
